--- a/biology/Zoologie/Bolostromus_panamanus/Bolostromus_panamanus.xlsx
+++ b/biology/Zoologie/Bolostromus_panamanus/Bolostromus_panamanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolostromus panamanus est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolostromus panamanus est une espèce d'araignées mygalomorphes de la famille des Cyrtaucheniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama et au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama et au Costa Rica.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 15 mm[2].
-La femelle décrite par Calatayud-Mascarell, Alonso-Alonso et Korba en 2021 mesure 10,85 mm[3].
-Le mâle décrit par Dupérré en 2023 mesure 4,04 mm et la femelle 4,57 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 15 mm.
+La femelle décrite par Calatayud-Mascarell, Alonso-Alonso et Korba en 2021 mesure 10,85 mm.
+Le mâle décrit par Dupérré en 2023 mesure 4,04 mm et la femelle 4,57 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ancylotrypa panamana par Petrunkevitch en 1925. Elle est placée dans le genre Bolostromus par Raven en 1985[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ancylotrypa panamana par Petrunkevitch en 1925. Elle est placée dans le genre Bolostromus par Raven en 1985.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Panama.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Petrunkevitch, 1925 : « Arachnida from Panama. » Transactions of the Connecticut Academy of Arts and Sciences, vol. 27, no 2, p. 51-248.</t>
         </is>
